--- a/docs/assets/disciplinas/LOQ4249.xlsx
+++ b/docs/assets/disciplinas/LOQ4249.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Desenvolver habilidades e atitudes de empreendedorismo tecnológico. Exercitar a aplicação de conhecimentos, técnicas e métodos em um caso real de projeto de inovação.</t>
+    <t>5840560 - Marco Antonio Carvalho Pereira</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -76,13 +76,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840560 - Marco Antonio Carvalho Pereira</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Proposição pelos alunos de startup de base tecnológica</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,9 +88,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Proposição pelos alunos de startup de base tecnológica A proposta de startup é acompanhada por uma equipe de mentores, coordenada pelo professor da disciplina. Os mentores realizam apresentações sobre: inovação em produtos e serviços; necessidades e comportamento dos usuários; técnicas de ideação; definição de mercados, rotas tecnológicas e noções de propriedade intelectual; inovação aberta, capital de risco e técnicas de pitch</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -103,25 +97,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Atividades docentes: Mentoria, palestras e seminários.Atividades discentes: Elaboração de projeto utilizando laboratórios e instalações da USP.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Avaliação pela equipe de mentores, considerando critérios, tais como: qualidade técnica da proposta, grau de inovação, viabilidade técnica, dentre outros.Nota de projeto maior ou igual a 5,0 (cinco).</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Não há recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>BROWN, T. Design thinking. Rio de Janeiro: Campus, 2010.INPI. Instituto nacional de propriedade industrial. Disponível em: http://www.inpi.gov.br/. Consultado em: junho de 2015.KUMAR, V. 101 Design Methods: A Structured Approach for Driving Innovation in Your Organization. New Jersey: John Willey and Sons, 2013.MALHOTRA, N.K. Pesquisa de marketing: uma orientação aplicada. Porto Alegre: Bookman, 2006.ROMEIRO FILHO et al. Projeto do produto. Rio de Janeiro: Campus, 2010.ROZENFELD, Henrique. Gestão de desenvolvimento de produtos: uma referência para a melhoria do processo. Saraiva, 2006.</t>
   </si>
 </sst>
 </file>
@@ -477,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,93 +593,85 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4249.xlsx
+++ b/docs/assets/disciplinas/LOQ4249.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,19 +67,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Desenvolver habilidades e atitudes de empreendedorismo tecnológico. Exercitar a aplicação de conhecimentos, técnicas e métodos em um caso real de projeto de inovação.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840560 - Marco Antonio Carvalho Pereira</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Proposição pelos alunos de startup de base tecnológica</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -88,6 +91,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Proposição pelos alunos de startup de base tecnológica A proposta de startup é acompanhada por uma equipe de mentores, coordenada pelo professor da disciplina. Os mentores realizam apresentações sobre: inovação em produtos e serviços; necessidades e comportamento dos usuários; técnicas de ideação; definição de mercados, rotas tecnológicas e noções de propriedade intelectual; inovação aberta, capital de risco e técnicas de pitch</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,22 +103,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Atividades docentes: Mentoria, palestras e seminários.Atividades discentes: Elaboração de projeto utilizando laboratórios e instalações da USP.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Atividades docentes: Mentoria, palestras e seminários.Atividades discentes: Elaboração de projeto utilizando laboratórios e instalações da USP.</t>
+    <t>Avaliação pela equipe de mentores, considerando critérios, tais como: qualidade técnica da proposta, grau de inovação, viabilidade técnica, dentre outros.Nota de projeto maior ou igual a 5,0 (cinco).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Avaliação pela equipe de mentores, considerando critérios, tais como: qualidade técnica da proposta, grau de inovação, viabilidade técnica, dentre outros.Nota de projeto maior ou igual a 5,0 (cinco).</t>
+    <t>Não há recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Não há recuperação.</t>
+    <t>BROWN, T. Design thinking. Rio de Janeiro: Campus, 2010.INPI. Instituto nacional de propriedade industrial. Disponível em: http://www.inpi.gov.br/. Consultado em: junho de 2015.KUMAR, V. 101 Design Methods: A Structured Approach for Driving Innovation in Your Organization. New Jersey: John Willey and Sons, 2013.MALHOTRA, N.K. Pesquisa de marketing: uma orientação aplicada. Porto Alegre: Bookman, 2006.ROMEIRO FILHO et al. Projeto do produto. Rio de Janeiro: Campus, 2010.ROZENFELD, Henrique. Gestão de desenvolvimento de produtos: uma referência para a melhoria do processo. Saraiva, 2006.</t>
   </si>
 </sst>
 </file>
@@ -468,13 +477,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -593,85 +602,93 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
